--- a/public/import_format/user.xlsx
+++ b/public/import_format/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\desa\public\import_format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C25256F-B9D2-4B90-9F40-ED6E40F48A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD0B6CA-356E-4D25-963E-D36631844319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A520374E-9359-483B-B733-269700D4823D}"/>
+    <workbookView xWindow="5055" yWindow="2505" windowWidth="15375" windowHeight="8325" xr2:uid="{A520374E-9359-483B-B733-269700D4823D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>username</t>
   </si>
@@ -58,6 +58,90 @@
   </si>
   <si>
     <t>3515000000000001</t>
+  </si>
+  <si>
+    <t>no_kk</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>tempat_lahir</t>
+  </si>
+  <si>
+    <t>tanggal_lahir</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>agama</t>
+  </si>
+  <si>
+    <t>pendidikan</t>
+  </si>
+  <si>
+    <t>pekerjaan</t>
+  </si>
+  <si>
+    <t>gol_darah</t>
+  </si>
+  <si>
+    <t>kode_wilayah_ktp</t>
+  </si>
+  <si>
+    <t>alamat_ktp</t>
+  </si>
+  <si>
+    <t>no_telp</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>3515000000000011</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Kudus</t>
+  </si>
+  <si>
+    <t>2000-09-28</t>
+  </si>
+  <si>
+    <t>laki-laki</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Belum Taman SD/Sederajat</t>
+  </si>
+  <si>
+    <t>Dokter</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>35.15.15.2009</t>
+  </si>
+  <si>
+    <t>Jl Ayani 11</t>
+  </si>
+  <si>
+    <t>62895621061193</t>
+  </si>
+  <si>
+    <t>domisili</t>
+  </si>
+  <si>
+    <t>RW 01/RT 01</t>
+  </si>
+  <si>
+    <t>warga</t>
   </si>
 </sst>
 </file>
@@ -438,51 +522,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3D4E21-09F7-4064-9D60-8E16FE2D2353}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{322558B5-F579-496D-B40F-8EC14FF35CF7}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{322558B5-F579-496D-B40F-8EC14FF35CF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/public/import_format/user.xlsx
+++ b/public/import_format/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\desa\public\import_format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD0B6CA-356E-4D25-963E-D36631844319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCD5823-FDDB-49FC-B3AB-F2E3DDF4471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2505" windowWidth="15375" windowHeight="8325" xr2:uid="{A520374E-9359-483B-B733-269700D4823D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A520374E-9359-483B-B733-269700D4823D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>John Doe</t>
   </si>
   <si>
-    <t>Kudus</t>
-  </si>
-  <si>
     <t>2000-09-28</t>
   </si>
   <si>
@@ -117,12 +114,6 @@
     <t>Islam</t>
   </si>
   <si>
-    <t>Belum Taman SD/Sederajat</t>
-  </si>
-  <si>
-    <t>Dokter</t>
-  </si>
-  <si>
     <t>AB</t>
   </si>
   <si>
@@ -142,6 +133,15 @@
   </si>
   <si>
     <t>warga</t>
+  </si>
+  <si>
+    <t>Kab. Kudus</t>
+  </si>
+  <si>
+    <t>Belum Tamat SD/Sederajat</t>
+  </si>
+  <si>
+    <t>Jasa</t>
   </si>
 </sst>
 </file>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3D4E21-09F7-4064-9D60-8E16FE2D2353}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,7 @@
         <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -611,40 +611,40 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
